--- a/biology/Médecine/Rutoside/Rutoside.xlsx
+++ b/biology/Médecine/Rutoside/Rutoside.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le rutoside est un diglycoside de la quercétine (quercétol), le quercétol 3-O-rutinoside, relativement fréquent dans la nature. Il porte aussi les noms de rutine et sophorine. C’est un flavonoïde naturel de type flavonol qui possède des propriétés pharmacologiques intéressantes. Il est hydrolysé en quercétol dans le tractus gastro-intestinal.
@@ -513,18 +525,20 @@
           <t>Plantes riches en rutoside</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les plantes les plus riches[4] sont :
-Sophora japonica : le sophora est un grand arbre de la famille des Fabacées, originaire de Chine, cultivé en Europe à des fins ornementales. L’industrie pharmaceutique l’utilise pour ses boutons floraux[5] qui contiennent juste avant leur épanouissement, de 15 à 20 % de rutoside. Avant l’arrivée des colorants synthétiques, il était aussi utilisé en Asie Orientale pour teindre la soie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les plantes les plus riches sont :
+Sophora japonica : le sophora est un grand arbre de la famille des Fabacées, originaire de Chine, cultivé en Europe à des fins ornementales. L’industrie pharmaceutique l’utilise pour ses boutons floraux qui contiennent juste avant leur épanouissement, de 15 à 20 % de rutoside. Avant l’arrivée des colorants synthétiques, il était aussi utilisé en Asie Orientale pour teindre la soie.
 le sarrasin (Fagopyrum esculentum) est une pseudocéréale annuelle de la famille des Polygonacées, cultivée pour ses graines alimentaires. Ses feuilles contiennent de 2 à 3 % de rutoside et les variétés améliorées jusqu’à 5 à 8 % mais la présence de substances photosensiblisantes (fagopyrines) compliquent l'extraction.
-Eucalyptus macrorrhyncha a les feuilles suffisamment riches en rutoside pour en permettre l’extraction[6]
-la pensée sauvage (Viola tricolor), avec 23 % de rutoside, est la plante la mieux pourvue[7]
+Eucalyptus macrorrhyncha a les feuilles suffisamment riches en rutoside pour en permettre l’extraction
+la pensée sauvage (Viola tricolor), avec 23 % de rutoside, est la plante la mieux pourvue
 le mûrier blanc (Morus alba) dont les feuilles contiennent 6 % de rutoside
 le persil (Petroselimum crispum) est aussi riche (3 % dans ses feuilles)
 la rhubarbe (Rheum rhabarbarum) contient un grand nombre de phénols dont le rutoside (0,6 % dans les feuilles)
 la myrtille (Vaccinum myrtillus) a des baies dont le contenu total en flavonols est compris entre 540 et 1 300 mg d’équivalent de rutoside par kilogramme de matière sèche
-les asperges : ce sont des légumes ayant une des plus grandes activités antioxydantes parmi 43 légumes et le rutoside est leur flavonoïde principal (450 mg·kg-1 du poids frais des asperges blanches)[8]
+les asperges : ce sont des légumes ayant une des plus grandes activités antioxydantes parmi 43 légumes et le rutoside est leur flavonoïde principal (450 mg·kg-1 du poids frais des asperges blanches)
 les oignons sont une source majeure de flavonols et en particulier de quercétol et de ses glycosides comme le rutoside
 le Ginkgo biloba, riche en quercétol et rutoside
 le coing (Cydonia oblonga), le tabac, le forsythia, etc.</t>
@@ -555,11 +569,13 @@
           <t>Absorption et métabolisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seule une petite fraction (17 %) du rutoside est absorbée dans l’intestin grêle, le reste (83 %) passe dans le côlon où il est métabolisé. Le rutoside y est d’abord déglycolisé en quercétol. Les bactéries de la microflore du côlon clivent aussi le rutoside et le quercétol en acides phénylacétiques (acide 3,4-dihydroxyphénylacétique 3,4DHPAA, acide 3-hydroxyphénylacétique 3HPAA), ainsi qu’en formate, acétate, butyrate, etc. et divers produits intermédiaires tel le phloroglucinol. La bactérie fécale responsable du clivage du rutoside a été identifiée comme étant Eubacterium ramulus[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seule une petite fraction (17 %) du rutoside est absorbée dans l’intestin grêle, le reste (83 %) passe dans le côlon où il est métabolisé. Le rutoside y est d’abord déglycolisé en quercétol. Les bactéries de la microflore du côlon clivent aussi le rutoside et le quercétol en acides phénylacétiques (acide 3,4-dihydroxyphénylacétique 3,4DHPAA, acide 3-hydroxyphénylacétique 3HPAA), ainsi qu’en formate, acétate, butyrate, etc. et divers produits intermédiaires tel le phloroglucinol. La bactérie fécale responsable du clivage du rutoside a été identifiée comme étant Eubacterium ramulus.
 Une fois absorbés, ces métabolites sont conduits par le sang dans le foie et les reins où ils subissent une méthylation et une glucuronisation.
-Les métabolites en acides phénylacétiques ont une moindre activité anti-oxydante que les composés dont ils sont issus. De plus, seul le 3,4DHPPAA montre une activité antiproliférative sur les cellules du cancer du côlon et de la prostate[10],[11],[12].
+Les métabolites en acides phénylacétiques ont une moindre activité anti-oxydante que les composés dont ils sont issus. De plus, seul le 3,4DHPPAA montre une activité antiproliférative sur les cellules du cancer du côlon et de la prostate.
 </t>
         </is>
       </c>
@@ -588,16 +604,18 @@
           <t>Activités biologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses études ont montré que le rutoside était capable de piéger les radicaux libres[13], d’être doté d’une puissante activité anti-oxydante[8],
-d’avoir des effets anti-inflammatoires[14],
-d’avoir des propriétés anticancéreuses[15],[16]
-et de réduire la cytotoxicité de la lipoprotéine LDL (le mauvais cholestérol) oxydé[17].
-L’activité anti-oxydante du rutoside est du même ordre de grandeur que celle du quercétol, elle est moindre que celle du myricétol et supérieure à celle du kaempférol[18] : Myricétol &gt; Quercétol, Rutoside &gt; Kaempférol.
-Sawa et als.(1999)[19]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses études ont montré que le rutoside était capable de piéger les radicaux libres, d’être doté d’une puissante activité anti-oxydante,
+d’avoir des effets anti-inflammatoires,
+d’avoir des propriétés anticancéreuses,
+et de réduire la cytotoxicité de la lipoprotéine LDL (le mauvais cholestérol) oxydé.
+L’activité anti-oxydante du rutoside est du même ordre de grandeur que celle du quercétol, elle est moindre que celle du myricétol et supérieure à celle du kaempférol : Myricétol &gt; Quercétol, Rutoside &gt; Kaempférol.
+Sawa et als.(1999)
 ont montré que la puissante activité de piégeur de radicaux libres in vitro du rutoside pourrait jouer un rôle dans la protection contre quelques cancers.
-Une étude de Koda et als. (2008)[20]a établi que le rutoside avait un effet protecteur contre les déficits de mémoire spatiale induite chez le rat par la perte de cellules pyramidales de la région CA3 de l’hippocampe.
+Une étude de Koda et als. (2008)a établi que le rutoside avait un effet protecteur contre les déficits de mémoire spatiale induite chez le rat par la perte de cellules pyramidales de la région CA3 de l’hippocampe.
 </t>
         </is>
       </c>
@@ -626,13 +644,15 @@
           <t>Utilisations diététiques et thérapeutiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses études épidémiologiques ont montré que la consommation régulière de fruits et légumes riches en flavonoïdes était clairement liée à une diminution des risques de maladies cardiovasculaires, neurologiques et cancéreuses[21].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses études épidémiologiques ont montré que la consommation régulière de fruits et légumes riches en flavonoïdes était clairement liée à une diminution des risques de maladies cardiovasculaires, neurologiques et cancéreuses.
 L’identification des principes actifs permettra de passer de la diététique aux utilisations thérapeutiques. Mais pour l’instant, la majorité des études étant des tests biochimiques in vitro ou des études de pharmacologie animale, les essais chez l’homme trop rares ne permettent pas d’établir la réelle efficacité clinique des composés flavonoïques.
-Une étude de Bamigboye et Hofmeyr[22] (2006) a montré que la prise de comprimés de rutoside par des femmes enceintes pouvait améliorer les symptômes associés aux œdèmes des membres inférieurs et aux varices. Une réduction de l’œdème de la patte a aussi été obtenue chez la souris souffrant d’arthrite septique[23]. L'efficacité du composé pourrait provenir d'une inhibition de la production de NO par les macrophages et de la prolifération des lymphocytes T.
-Une étude pilote[24] a montré les effets bénéfiques de la prise orale de rutoside et d’acide ascorbique sur le purpura progressif pigmenté.
-Jean Bruneton[5] résume les utilisations thérapeutiques du rutoside, seul ou associé (esculoside, citroflavonoïdes, acide ascorbique, etc.) en quatre types d’emplois :
+Une étude de Bamigboye et Hofmeyr (2006) a montré que la prise de comprimés de rutoside par des femmes enceintes pouvait améliorer les symptômes associés aux œdèmes des membres inférieurs et aux varices. Une réduction de l’œdème de la patte a aussi été obtenue chez la souris souffrant d’arthrite septique. L'efficacité du composé pourrait provenir d'une inhibition de la production de NO par les macrophages et de la prolifération des lymphocytes T.
+Une étude pilote a montré les effets bénéfiques de la prise orale de rutoside et d’acide ascorbique sur le purpura progressif pigmenté.
+Jean Bruneton résume les utilisations thérapeutiques du rutoside, seul ou associé (esculoside, citroflavonoïdes, acide ascorbique, etc.) en quatre types d’emplois :
 dans les manifestations fonctionnelles de l’insuffisance veinolymphatique,
 dans le traitement symptomatique des troubles fonctionnels de la fragilité capillaire,
 dans le traitement des signes fonctionnels liés à la crise hémorroïdaire,
